--- a/output/blm_swampformat_Dec.xlsx
+++ b/output/blm_swampformat_Dec.xlsx
@@ -454,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -538,7 +538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -598,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -633,7 +633,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -663,7 +663,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -693,7 +693,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -723,7 +723,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -774,7 +774,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -841,7 +841,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -886,7 +886,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -926,7 +926,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -966,7 +966,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1016,7 +1016,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1061,7 +1061,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1101,7 +1101,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1141,7 +1141,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1202,7 +1202,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -1263,7 +1263,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -1308,7 +1308,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -1348,7 +1348,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -1388,7 +1388,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1433,7 +1433,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1473,7 +1473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1513,7 +1513,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1553,7 +1553,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1598,7 +1598,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1643,7 +1643,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1683,7 +1683,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1723,7 +1723,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1768,7 +1768,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1808,7 +1808,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1848,7 +1848,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -1888,7 +1888,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -1949,7 +1949,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -2178,7 +2178,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -2337,7 +2337,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -2491,7 +2491,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -2645,7 +2645,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -2804,7 +2804,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -2958,7 +2958,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -3112,7 +3112,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -3261,7 +3261,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -3436,7 +3436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -3623,7 +3623,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -3738,7 +3738,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -3853,7 +3853,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -3968,7 +3968,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -4083,7 +4083,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -4198,7 +4198,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -4313,7 +4313,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -4423,7 +4423,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -4533,7 +4533,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -4643,7 +4643,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -4753,7 +4753,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -4863,7 +4863,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -4978,7 +4978,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -5093,7 +5093,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -5208,7 +5208,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -5323,7 +5323,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -5438,7 +5438,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -5553,7 +5553,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -5668,7 +5668,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -5778,7 +5778,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -5893,7 +5893,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -6008,7 +6008,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -6123,7 +6123,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -6238,7 +6238,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -6353,7 +6353,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -6468,7 +6468,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -6583,7 +6583,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -6693,7 +6693,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -6803,7 +6803,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -6913,7 +6913,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -7023,7 +7023,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -7133,7 +7133,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -7248,7 +7248,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -7363,7 +7363,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -7478,7 +7478,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -7593,7 +7593,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -7708,7 +7708,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -7823,7 +7823,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -7933,7 +7933,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -8048,7 +8048,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -8163,7 +8163,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -8273,7 +8273,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -8383,7 +8383,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -8493,7 +8493,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -8603,7 +8603,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -8708,7 +8708,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -8813,7 +8813,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -8918,7 +8918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -9023,7 +9023,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -9128,7 +9128,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -9238,7 +9238,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -9348,7 +9348,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -9458,7 +9458,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -9568,7 +9568,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -9678,7 +9678,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -9788,7 +9788,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -9893,7 +9893,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -10003,7 +10003,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -10113,7 +10113,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -10228,7 +10228,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -10343,7 +10343,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -10458,7 +10458,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -10573,7 +10573,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -10683,7 +10683,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -10793,7 +10793,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -10903,7 +10903,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -11013,7 +11013,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -11123,7 +11123,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -11238,7 +11238,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -11353,7 +11353,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -11468,7 +11468,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -11583,7 +11583,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -11698,7 +11698,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -11813,7 +11813,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -11923,7 +11923,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -12038,7 +12038,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -12153,7 +12153,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -12268,7 +12268,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -12383,7 +12383,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -12498,7 +12498,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -12613,7 +12613,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -12723,7 +12723,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -12833,7 +12833,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
@@ -12943,7 +12943,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
@@ -13053,7 +13053,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -13163,7 +13163,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -13278,7 +13278,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
@@ -13393,7 +13393,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
@@ -13508,7 +13508,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -13623,7 +13623,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -13738,7 +13738,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -13853,7 +13853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -13963,7 +13963,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -14078,7 +14078,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -14193,7 +14193,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -14303,7 +14303,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -14413,7 +14413,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
@@ -14523,7 +14523,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
@@ -14633,7 +14633,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -14738,7 +14738,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -14843,7 +14843,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -14948,7 +14948,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -15053,7 +15053,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -15158,7 +15158,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -15268,7 +15268,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -15378,7 +15378,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
@@ -15488,7 +15488,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
@@ -15598,7 +15598,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -15708,7 +15708,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
@@ -15818,7 +15818,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
@@ -15923,7 +15923,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
@@ -16033,7 +16033,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
@@ -16143,7 +16143,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
@@ -16258,7 +16258,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
@@ -16373,7 +16373,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
@@ -16488,7 +16488,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
@@ -16603,7 +16603,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
@@ -16713,7 +16713,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
@@ -16823,7 +16823,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -16933,7 +16933,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
@@ -17043,7 +17043,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -17153,7 +17153,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -17268,7 +17268,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -17383,7 +17383,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
@@ -17498,7 +17498,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
@@ -17613,7 +17613,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
@@ -17728,7 +17728,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
@@ -17843,7 +17843,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -17953,7 +17953,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
@@ -18068,7 +18068,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
@@ -18183,7 +18183,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
@@ -18298,7 +18298,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
@@ -18413,7 +18413,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
@@ -18528,7 +18528,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
@@ -18643,7 +18643,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -18753,7 +18753,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
@@ -18863,7 +18863,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -18973,7 +18973,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
@@ -19083,7 +19083,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
@@ -19193,7 +19193,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
@@ -19308,7 +19308,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
@@ -19423,7 +19423,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
@@ -19538,7 +19538,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
@@ -19653,7 +19653,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
@@ -19768,7 +19768,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
@@ -19883,7 +19883,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
@@ -19993,7 +19993,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -20108,7 +20108,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
@@ -20239,7 +20239,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -20402,7 +20402,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -20503,7 +20503,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -20604,7 +20604,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -20705,7 +20705,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -20806,7 +20806,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -20907,7 +20907,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -21008,7 +21008,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -21109,7 +21109,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -21210,7 +21210,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -21311,7 +21311,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -21412,7 +21412,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -21513,7 +21513,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -21614,7 +21614,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC1-Fax</t>
+          <t>BC1-Fax</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -21715,7 +21715,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -21816,7 +21816,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -21917,7 +21917,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -22018,7 +22018,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -22119,7 +22119,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -22220,7 +22220,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -22321,7 +22321,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -22422,7 +22422,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -22523,7 +22523,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -22624,7 +22624,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -22725,7 +22725,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -22826,7 +22826,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -22927,7 +22927,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLM-RB4-BC2-Ing</t>
+          <t>BC2-Ing</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -23028,7 +23028,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -23124,7 +23124,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -23220,7 +23220,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -23316,7 +23316,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -23412,7 +23412,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -23508,7 +23508,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -23604,7 +23604,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -23700,7 +23700,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -23796,7 +23796,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -23892,7 +23892,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -23988,7 +23988,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -24084,7 +24084,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -24180,7 +24180,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Art</t>
+          <t>SGR1-Art</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -24276,7 +24276,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -24377,7 +24377,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -24478,7 +24478,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -24579,7 +24579,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -24680,7 +24680,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -24781,7 +24781,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -24882,7 +24882,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -24983,7 +24983,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -25084,7 +25084,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -25185,7 +25185,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -25286,7 +25286,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -25387,7 +25387,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -25488,7 +25488,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR1-Est</t>
+          <t>SGR1-Est</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -25589,7 +25589,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -25690,7 +25690,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -25791,7 +25791,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -25892,7 +25892,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -25993,7 +25993,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -26094,7 +26094,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -26195,7 +26195,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -26296,7 +26296,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -26397,7 +26397,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -26498,7 +26498,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -26599,7 +26599,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -26700,7 +26700,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -26801,7 +26801,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Fir</t>
+          <t>SGR2-Fir</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -26902,7 +26902,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -26998,7 +26998,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -27094,7 +27094,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -27190,7 +27190,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -27286,7 +27286,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -27382,7 +27382,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -27478,7 +27478,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -27574,7 +27574,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -27670,7 +27670,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -27766,7 +27766,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -27862,7 +27862,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -27958,7 +27958,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -28054,7 +28054,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR2-Wht</t>
+          <t>SGR2-Wht</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -28150,7 +28150,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -28251,7 +28251,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -28352,7 +28352,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -28453,7 +28453,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -28554,7 +28554,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
@@ -28655,7 +28655,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
@@ -28756,7 +28756,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -28857,7 +28857,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -28958,7 +28958,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
@@ -29059,7 +29059,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
@@ -29160,7 +29160,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -29261,7 +29261,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -29362,7 +29362,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Dam</t>
+          <t>SGR3-Dam</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -29463,7 +29463,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -29564,7 +29564,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -29665,7 +29665,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -29766,7 +29766,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -29867,7 +29867,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -29968,7 +29968,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
@@ -30069,7 +30069,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
@@ -30170,7 +30170,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -30271,7 +30271,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -30372,7 +30372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -30473,7 +30473,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -30574,7 +30574,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -30675,7 +30675,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BLM-RB4-SGR3-Sjc</t>
+          <t>SGR3-Sjc</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">

--- a/output/blm_swampformat_Dec.xlsx
+++ b/output/blm_swampformat_Dec.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Locations" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FieldResults" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="HabitatResults" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BenthicResults" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ChemResults" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="LabBatch" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1004,7 +1007,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Dry_NoWater_</t>
+          <t>Dry (no water)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1179,7 +1182,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dry_NoWater_</t>
+          <t>Dry (no water)</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1969,7 @@
     <col width="17" customWidth="1" min="15" max="15"/>
     <col width="19" customWidth="1" min="16" max="16"/>
     <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
     <col width="13" customWidth="1" min="19" max="19"/>
     <col width="26" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
@@ -1983,7 +1986,7 @@
     <col width="15" customWidth="1" min="32" max="32"/>
     <col width="14" customWidth="1" min="33" max="33"/>
     <col width="16" customWidth="1" min="34" max="34"/>
-    <col width="18" customWidth="1" min="35" max="35"/>
+    <col width="21" customWidth="1" min="35" max="35"/>
     <col width="12" customWidth="1" min="36" max="36"/>
     <col width="18" customWidth="1" min="37" max="37"/>
   </cols>
@@ -2255,7 +2258,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ConcretChannel</t>
+          <t>ConChan</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -2269,7 +2272,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>33.9894758333333</v>
@@ -2323,10 +2326,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI2" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -2409,7 +2410,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>ConcretChannel</t>
+          <t>ConChan</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -2423,7 +2424,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>34.0385098333333</v>
@@ -2477,10 +2478,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI3" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Dyke_Levee</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -2577,7 +2576,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>34.0388481666667</v>
@@ -2631,10 +2630,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI4" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -2736,7 +2733,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>34.022396</v>
@@ -2790,10 +2787,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI5" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -2876,7 +2871,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Dyke_Levee</t>
+          <t>Weir</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -2890,7 +2885,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>33.993916</v>
@@ -2944,10 +2939,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI6" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -3030,7 +3023,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>ConcretChannel</t>
+          <t>ConChan</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -3044,7 +3037,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>33.8709558333333</v>
@@ -3098,10 +3091,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI7" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -3179,7 +3170,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>ConcretChannel</t>
+          <t>ConChan</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -3193,7 +3184,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>33.7910585</v>
@@ -3247,10 +3238,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI8" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -3338,7 +3327,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>ConcretChannel</t>
+          <t>ConChan</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -3352,7 +3341,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>33.9295635</v>
@@ -3406,10 +3395,8 @@
           <t>DarioDiehl</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>2020-12-15</t>
-        </is>
+      <c r="AI9" s="2" t="n">
+        <v>44180</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -3712,7 +3699,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -3728,7 +3715,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC2" s="2" t="n">
@@ -3827,7 +3814,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -3843,7 +3830,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC3" s="2" t="n">
@@ -3942,7 +3929,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -3958,7 +3945,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC4" s="2" t="n">
@@ -4057,7 +4044,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -4073,7 +4060,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC5" s="2" t="n">
@@ -4188,7 +4175,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC6" s="2" t="n">
@@ -4287,7 +4274,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -4303,7 +4290,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC7" s="2" t="n">
@@ -4416,6 +4403,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC8" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -4526,6 +4518,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC9" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -4636,6 +4633,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC10" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -4746,6 +4748,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC11" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -4856,6 +4863,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC12" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -4952,7 +4964,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -5067,7 +5079,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -5083,7 +5095,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC14" s="2" t="n">
@@ -5182,7 +5194,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -5198,7 +5210,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC15" s="2" t="n">
@@ -5297,7 +5309,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -5313,7 +5325,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC16" s="2" t="n">
@@ -5412,7 +5424,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -5428,7 +5440,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC17" s="2" t="n">
@@ -5527,7 +5539,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -5543,7 +5555,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC18" s="2" t="n">
@@ -5642,7 +5654,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -5658,7 +5670,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC19" s="2" t="n">
@@ -5771,6 +5783,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC20" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -5867,7 +5884,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -5998,7 +6015,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC22" s="2" t="n">
@@ -6113,7 +6130,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC23" s="2" t="n">
@@ -6212,7 +6229,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -6228,7 +6245,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC24" s="2" t="n">
@@ -6327,7 +6344,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -6343,7 +6360,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC25" s="2" t="n">
@@ -6458,7 +6475,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC26" s="2" t="n">
@@ -6557,7 +6574,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -6573,7 +6590,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC27" s="2" t="n">
@@ -6686,6 +6703,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC28" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -6796,6 +6818,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC29" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -6906,6 +6933,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC30" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -7016,6 +7048,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC31" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -7126,6 +7163,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC32" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -7222,7 +7264,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -7337,7 +7379,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -7353,7 +7395,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC34" s="2" t="n">
@@ -7452,7 +7494,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -7468,7 +7510,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC35" s="2" t="n">
@@ -7567,7 +7609,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -7583,7 +7625,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC36" s="2" t="n">
@@ -7682,7 +7724,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -7698,7 +7740,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC37" s="2" t="n">
@@ -7797,7 +7839,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -7813,7 +7855,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC38" s="2" t="n">
@@ -7926,6 +7968,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC39" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -8022,7 +8069,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -8153,7 +8200,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC41" s="2" t="n">
@@ -8247,7 +8294,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -8263,7 +8310,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC42" s="2" t="n">
@@ -8357,7 +8404,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -8373,7 +8420,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC43" s="2" t="n">
@@ -8483,7 +8530,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC44" s="2" t="n">
@@ -8577,7 +8624,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -8593,7 +8640,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC45" s="2" t="n">
@@ -8701,6 +8748,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC46" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -8806,6 +8858,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC47" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -8911,6 +8968,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC48" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -9016,6 +9078,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC49" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -9121,6 +9188,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC50" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -9212,7 +9284,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -9322,7 +9394,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -9338,7 +9410,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC52" s="2" t="n">
@@ -9432,7 +9504,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -9448,7 +9520,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC53" s="2" t="n">
@@ -9542,7 +9614,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -9558,7 +9630,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC54" s="2" t="n">
@@ -9652,7 +9724,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -9668,7 +9740,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC55" s="2" t="n">
@@ -9762,7 +9834,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -9778,7 +9850,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC56" s="2" t="n">
@@ -9886,6 +9958,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC57" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -9977,7 +10054,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -10103,7 +10180,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC59" s="2" t="n">
@@ -10202,7 +10279,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -10218,7 +10295,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC60" s="2" t="n">
@@ -10317,7 +10394,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -10333,7 +10410,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC61" s="2" t="n">
@@ -10448,7 +10525,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC62" s="2" t="n">
@@ -10547,7 +10624,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V63" t="n">
@@ -10563,7 +10640,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC63" s="2" t="n">
@@ -10676,6 +10753,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC64" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -10786,6 +10868,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC65" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -10896,6 +10983,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC66" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -11006,6 +11098,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC67" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -11116,6 +11213,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC68" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -11212,7 +11314,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V69" t="n">
@@ -11327,7 +11429,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V70" t="n">
@@ -11343,7 +11445,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC70" s="2" t="n">
@@ -11442,7 +11544,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V71" t="n">
@@ -11458,7 +11560,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC71" s="2" t="n">
@@ -11557,7 +11659,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V72" t="n">
@@ -11573,7 +11675,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC72" s="2" t="n">
@@ -11672,7 +11774,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V73" t="n">
@@ -11688,7 +11790,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC73" s="2" t="n">
@@ -11787,7 +11889,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V74" t="n">
@@ -11803,7 +11905,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC74" s="2" t="n">
@@ -11916,6 +12018,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC75" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -12012,7 +12119,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V76" t="n">
@@ -12143,7 +12250,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC77" s="2" t="n">
@@ -12242,7 +12349,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V78" t="n">
@@ -12258,7 +12365,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC78" s="2" t="n">
@@ -12357,7 +12464,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V79" t="n">
@@ -12373,7 +12480,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC79" s="2" t="n">
@@ -12488,7 +12595,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC80" s="2" t="n">
@@ -12587,7 +12694,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V81" t="n">
@@ -12603,7 +12710,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC81" s="2" t="n">
@@ -12716,6 +12823,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC82" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -12826,6 +12938,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC83" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -12936,6 +13053,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC84" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -13046,6 +13168,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC85" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -13156,6 +13283,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC86" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -13252,7 +13384,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V87" t="n">
@@ -13367,7 +13499,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V88" t="n">
@@ -13383,7 +13515,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC88" s="2" t="n">
@@ -13498,7 +13630,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC89" s="2" t="n">
@@ -13613,7 +13745,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC90" s="2" t="n">
@@ -13728,7 +13860,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC91" s="2" t="n">
@@ -13843,7 +13975,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC92" s="2" t="n">
@@ -13956,6 +14088,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC93" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -14052,7 +14189,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V94" t="n">
@@ -14183,7 +14320,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC95" s="2" t="n">
@@ -14277,7 +14414,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V96" t="n">
@@ -14293,7 +14430,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC96" s="2" t="n">
@@ -14387,7 +14524,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V97" t="n">
@@ -14403,7 +14540,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC97" s="2" t="n">
@@ -14513,7 +14650,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC98" s="2" t="n">
@@ -14607,7 +14744,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V99" t="n">
@@ -14623,7 +14760,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC99" s="2" t="n">
@@ -14731,6 +14868,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC100" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -14836,6 +14978,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC101" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -14941,6 +15088,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC102" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -15046,6 +15198,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC103" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -15151,6 +15308,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC104" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -15242,7 +15404,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V105" t="n">
@@ -15352,7 +15514,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V106" t="n">
@@ -15368,7 +15530,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC106" s="2" t="n">
@@ -15462,7 +15624,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V107" t="n">
@@ -15478,7 +15640,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC107" s="2" t="n">
@@ -15572,7 +15734,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V108" t="n">
@@ -15588,7 +15750,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC108" s="2" t="n">
@@ -15682,7 +15844,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V109" t="n">
@@ -15698,7 +15860,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC109" s="2" t="n">
@@ -15808,7 +15970,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC110" s="2" t="n">
@@ -15916,6 +16078,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC111" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -16007,7 +16174,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V112" t="n">
@@ -16133,7 +16300,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC113" s="2" t="n">
@@ -16232,7 +16399,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V114" t="n">
@@ -16248,7 +16415,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC114" s="2" t="n">
@@ -16347,7 +16514,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V115" t="n">
@@ -16363,7 +16530,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC115" s="2" t="n">
@@ -16478,7 +16645,7 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC116" s="2" t="n">
@@ -16577,7 +16744,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V117" t="n">
@@ -16593,7 +16760,7 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC117" s="2" t="n">
@@ -16706,6 +16873,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC118" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -16816,6 +16988,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC119" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -16926,6 +17103,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC120" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -17036,6 +17218,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC121" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -17146,6 +17333,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC122" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -17242,7 +17434,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V123" t="n">
@@ -17357,7 +17549,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V124" t="n">
@@ -17373,7 +17565,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC124" s="2" t="n">
@@ -17488,7 +17680,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC125" s="2" t="n">
@@ -17603,7 +17795,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC126" s="2" t="n">
@@ -17718,7 +17910,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC127" s="2" t="n">
@@ -17833,7 +18025,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC128" s="2" t="n">
@@ -17946,6 +18138,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC129" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -18042,7 +18239,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V130" t="n">
@@ -18173,7 +18370,7 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC131" s="2" t="n">
@@ -18272,7 +18469,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>mg_L</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V132" t="n">
@@ -18288,7 +18485,7 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC132" s="2" t="n">
@@ -18387,7 +18584,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>percent</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V133" t="n">
@@ -18403,7 +18600,7 @@
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC133" s="2" t="n">
@@ -18518,7 +18715,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC134" s="2" t="n">
@@ -18617,7 +18814,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>µS_cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V135" t="n">
@@ -18633,7 +18830,7 @@
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC135" s="2" t="n">
@@ -18746,6 +18943,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC136" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -18856,6 +19058,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC137" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -18966,6 +19173,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC138" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -19076,6 +19288,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC139" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -19186,6 +19403,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC140" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -19282,7 +19504,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>degreeC</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V141" t="n">
@@ -19397,7 +19619,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>degree C</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -19413,7 +19635,7 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC142" s="2" t="n">
@@ -19528,7 +19750,7 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC143" s="2" t="n">
@@ -19643,7 +19865,7 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC144" s="2" t="n">
@@ -19758,7 +19980,7 @@
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC145" s="2" t="n">
@@ -19873,7 +20095,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC146" s="2" t="n">
@@ -19986,6 +20208,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>Wading Rod</t>
+        </is>
+      </c>
       <c r="AC147" s="2" t="n">
         <v>44179.83333333334</v>
       </c>
@@ -20082,7 +20309,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>m_s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V148" t="n">
@@ -20213,7 +20440,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>YSIPro1020</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC149" s="2" t="n">
@@ -30776,4 +31003,679 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="12" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="22" customWidth="1" min="26" max="26"/>
+    <col width="25" customWidth="1" min="27" max="27"/>
+    <col width="22" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="21" customWidth="1" min="31" max="31"/>
+    <col width="21" customWidth="1" min="32" max="32"/>
+    <col width="21" customWidth="1" min="33" max="33"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="24" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="26" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="10" customWidth="1" min="41" max="41"/>
+    <col width="10" customWidth="1" min="42" max="42"/>
+    <col width="8" customWidth="1" min="43" max="43"/>
+    <col width="10" customWidth="1" min="44" max="44"/>
+    <col width="13" customWidth="1" min="45" max="45"/>
+    <col width="8" customWidth="1" min="46" max="46"/>
+    <col width="16" customWidth="1" min="47" max="47"/>
+    <col width="23" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="14" customWidth="1" min="50" max="50"/>
+    <col width="22" customWidth="1" min="51" max="51"/>
+    <col width="13" customWidth="1" min="52" max="52"/>
+    <col width="11" customWidth="1" min="53" max="53"/>
+    <col width="23" customWidth="1" min="54" max="54"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>StationCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SampleDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ProjectCode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EventCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ProtocolCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AgencyCode</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SampleComments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LocationCode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GeometryShape</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionTime</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionMethodCode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SampleTypeCode</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Replicate</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionDeviceName</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SieveSize</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionDepth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>UnitCollectionDepth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BenthicCollectionComments</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>GrabSize</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>UnitGrabSize</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ReplicateName</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ReplicateCollectionDate</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>NumberJars</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>BenthicCollectionDetailComments</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AgencyCode_LabEffort</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PersonnelCode_LabEffort</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PercentSampleCounted</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalGrids</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>GridsAnalyzed</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>GridsVolumeAnalyzed</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>TargetOrganismCount</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ActualOrganismCount</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraOrganismCount</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>QCOrganismCount</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>DiscardedOrganismCount</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>EffortQACode</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>BenthicLabEffortComments</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>FinalID</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>LifeStageCode</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Distinct</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>BAResult</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>UnitName</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ResQualCode</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>QACode</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ComplianceCode</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>BatchVerificationCode</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>TaxonomicQualifier</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludedTaxa</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>PersonnelCode_Result</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>LabSampleID</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>EnterDate</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>BenthicResultComments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AO1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="16" max="16"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="10" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="14" customWidth="1" min="25" max="25"/>
+    <col width="10" customWidth="1" min="26" max="26"/>
+    <col width="13" customWidth="1" min="27" max="27"/>
+    <col width="22" customWidth="1" min="28" max="28"/>
+    <col width="22" customWidth="1" min="29" max="29"/>
+    <col width="21" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
+    <col width="14" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="13" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="16" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="19" customWidth="1" min="41" max="41"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>StationCode</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SampleDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ProjectCode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EventCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ProtocolCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AgencyCode</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SampleComments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LocationCode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GeometryShape</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionTime</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionMethodCode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SampleTypeCode</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Replicate</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionDeviceName</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionDepth</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>UnitCollectionDepth</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PositionWaterColumn</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LabCollectionComments</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MatrixName</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MethodName</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AnalyteName</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>FractionName</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>UnitName</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>LabBatch</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AnalysisDate</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>LabSampleID</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PrepPreservationName</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>PrepPreservationDate</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>DigestExtractMethod</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DigestExtractDate</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>LabReplicate</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ResQualCode</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>DilutionFactor</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>QACode</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ComplianceCode</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>ExpectedValue</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>LabResultComments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LabBatch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AgencyCode</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SubmittingAgencyCode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LabSubmissionCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BatchVerificationCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LabBatchComments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/blm_swampformat_Dec.xlsx
+++ b/output/blm_swampformat_Dec.xlsx
@@ -784,7 +784,7 @@
     <col width="21" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="42" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="50" customWidth="1" min="10" max="10"/>
   </cols>
@@ -877,7 +877,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FieldMeasure,WaterChem</t>
+          <t>WaterChem</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Walkin</t>
+          <t>Walk In</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>m</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -3689,33 +3689,38 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>9.800000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC2" s="2" t="n">
@@ -3772,7 +3777,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3821,11 +3826,16 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>9.380000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -3919,7 +3929,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -3929,18 +3939,23 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>92</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -4002,7 +4017,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4051,11 +4066,16 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>95.5</v>
+        <v>92</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -4149,28 +4169,33 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.78</v>
+        <v>95.5</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -4264,7 +4289,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -4274,18 +4299,23 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1533</v>
+        <v>0.78</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -4328,7 +4358,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4369,7 +4399,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -4379,7 +4409,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -4389,23 +4419,28 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>1533</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC8" s="2" t="n">
@@ -4443,7 +4478,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4511,11 +4546,16 @@
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -4558,7 +4598,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4626,11 +4666,16 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -4741,11 +4786,16 @@
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -4788,7 +4838,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4849,18 +4899,23 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>-88</v>
+        <v>10</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -4944,7 +4999,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -4954,7 +5009,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -4964,23 +5019,28 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V13" t="n">
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>10.8</v>
+        <v>-88</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC13" s="2" t="n">
@@ -5037,7 +5097,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -5059,7 +5119,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5086,16 +5146,21 @@
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>14.7</v>
+        <v>10.8</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC14" s="2" t="n">
@@ -5152,7 +5217,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -5206,6 +5271,11 @@
       <c r="X15" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -5248,7 +5318,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5299,7 +5369,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -5309,18 +5379,23 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0.11</v>
+        <v>14.7</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -5363,7 +5438,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5436,6 +5511,11 @@
       <c r="X17" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -5478,7 +5558,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5546,11 +5626,16 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -5661,11 +5746,16 @@
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -5708,7 +5798,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5749,7 +5839,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5759,7 +5849,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -5769,23 +5859,28 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V20" t="n">
         <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>16.7</v>
+        <v>0.08</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC20" s="2" t="n">
@@ -5898,6 +5993,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -6013,6 +6113,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB22" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -6128,6 +6233,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -6209,7 +6319,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6219,33 +6329,38 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V24" t="n">
         <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>9.57</v>
+        <v>13</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC24" s="2" t="n">
@@ -6334,7 +6449,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -6344,18 +6459,23 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V25" t="n">
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>-88</v>
+        <v>9.57</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -6449,28 +6569,33 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V26" t="n">
         <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0.7</v>
+        <v>-88</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -6564,7 +6689,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -6574,18 +6699,23 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1393</v>
+        <v>0.7</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6633,7 +6763,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6669,7 +6799,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -6679,7 +6809,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -6689,23 +6819,28 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V28" t="n">
         <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>22</v>
+        <v>1393</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC28" s="2" t="n">
@@ -6748,7 +6883,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6811,11 +6946,16 @@
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -6863,7 +7003,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6926,11 +7066,16 @@
         <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -6978,7 +7123,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7041,11 +7186,16 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -7093,7 +7243,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7149,18 +7299,23 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="V32" t="n">
         <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>-88</v>
+        <v>16</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -7244,7 +7399,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -7254,7 +7409,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -7264,23 +7419,28 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V33" t="n">
         <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>6.7</v>
+        <v>-88</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC33" s="2" t="n">
@@ -7359,7 +7519,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7386,16 +7546,21 @@
         <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC34" s="2" t="n">
@@ -7438,7 +7603,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7484,7 +7649,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -7494,18 +7659,23 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V35" t="n">
         <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0.14</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -7553,7 +7723,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7616,11 +7786,16 @@
         <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -7668,7 +7843,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7736,6 +7911,11 @@
       <c r="X37" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -7783,7 +7963,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7846,11 +8026,16 @@
         <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -7898,7 +8083,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7934,7 +8119,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -7944,7 +8129,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -7954,23 +8139,28 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V39" t="n">
         <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>0.17</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC39" s="2" t="n">
@@ -8083,6 +8273,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -8198,6 +8393,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB41" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -8274,7 +8474,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8284,33 +8484,38 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V42" t="n">
         <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>7.75</v>
+        <v>5</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC42" s="2" t="n">
@@ -8394,7 +8599,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -8404,18 +8609,23 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V43" t="n">
         <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>86</v>
+        <v>7.75</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -8504,28 +8714,33 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V44" t="n">
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>0.82</v>
+        <v>86</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -8614,7 +8829,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -8624,18 +8839,23 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V45" t="n">
         <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>1620</v>
+        <v>0.82</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -8678,7 +8898,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8714,7 +8934,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -8724,7 +8944,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -8734,23 +8954,28 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>20</v>
+        <v>1620</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC46" s="2" t="n">
@@ -8788,7 +9013,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8851,11 +9076,16 @@
         <v>1</v>
       </c>
       <c r="W47" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -8898,7 +9128,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8966,6 +9196,11 @@
       <c r="X48" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -9008,7 +9243,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9071,11 +9306,16 @@
         <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -9118,7 +9358,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -9174,18 +9414,23 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="V50" t="n">
         <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>0.25</v>
+        <v>18</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -9264,7 +9509,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -9274,7 +9519,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -9284,23 +9529,28 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V51" t="n">
         <v>1</v>
       </c>
       <c r="W51" t="n">
-        <v>25.3</v>
+        <v>0.25</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC51" s="2" t="n">
@@ -9374,7 +9624,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -9401,16 +9651,21 @@
         <v>1</v>
       </c>
       <c r="W52" t="n">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC52" s="2" t="n">
@@ -9448,7 +9703,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -9494,7 +9749,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -9504,18 +9759,23 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V53" t="n">
         <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>0.73</v>
+        <v>24.6</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -9558,7 +9818,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9621,11 +9881,16 @@
         <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -9668,7 +9933,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -9731,11 +9996,16 @@
         <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -9778,7 +10048,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9841,11 +10111,16 @@
         <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -9888,7 +10163,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -9924,7 +10199,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -9934,7 +10209,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -9944,23 +10219,28 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V57" t="n">
         <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>5</v>
+        <v>0.78</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC57" s="2" t="n">
@@ -10068,6 +10348,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB58" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -10178,6 +10463,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB59" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -10259,7 +10549,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -10269,33 +10559,38 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V60" t="n">
         <v>1</v>
       </c>
       <c r="W60" t="n">
-        <v>13.68</v>
+        <v>5.5</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC60" s="2" t="n">
@@ -10384,7 +10679,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -10394,18 +10689,23 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V61" t="n">
         <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>167.7</v>
+        <v>13.68</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -10499,28 +10799,33 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V62" t="n">
         <v>1</v>
       </c>
       <c r="W62" t="n">
-        <v>0.83</v>
+        <v>167.7</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -10614,7 +10919,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -10624,18 +10929,23 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V63" t="n">
         <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>1649</v>
+        <v>0.83</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -10678,7 +10988,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -10719,7 +11029,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -10729,7 +11039,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -10739,23 +11049,28 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V64" t="n">
         <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>26</v>
+        <v>1649</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC64" s="2" t="n">
@@ -10793,7 +11108,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -10861,11 +11176,16 @@
         <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -10908,7 +11228,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -10981,6 +11301,11 @@
       <c r="X66" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -11091,11 +11416,16 @@
         <v>1</v>
       </c>
       <c r="W67" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -11138,7 +11468,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11199,18 +11529,23 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="V68" t="n">
         <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>-88</v>
+        <v>26</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -11294,7 +11629,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -11304,7 +11639,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -11314,23 +11649,28 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V69" t="n">
         <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>23.3</v>
+        <v>-88</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC69" s="2" t="n">
@@ -11409,7 +11749,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -11443,9 +11783,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC70" s="2" t="n">
@@ -11483,7 +11828,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11534,7 +11879,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -11544,18 +11889,23 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V71" t="n">
         <v>1</v>
       </c>
       <c r="W71" t="n">
-        <v>0.35</v>
+        <v>23.3</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -11598,7 +11948,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -11671,6 +12021,11 @@
       <c r="X72" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -11713,7 +12068,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -11786,6 +12141,11 @@
       <c r="X73" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -11903,6 +12263,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB74" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -11943,7 +12308,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -11984,7 +12349,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -11994,7 +12359,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -12004,23 +12369,28 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V75" t="n">
         <v>1</v>
       </c>
       <c r="W75" t="n">
-        <v>5.5</v>
+        <v>0.35</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC75" s="2" t="n">
@@ -12133,6 +12503,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB76" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -12248,6 +12623,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB77" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -12329,7 +12709,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -12339,17 +12719,17 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V78" t="n">
@@ -12363,9 +12743,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC78" s="2" t="n">
@@ -12454,7 +12839,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -12464,7 +12849,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V79" t="n">
@@ -12476,6 +12861,11 @@
       <c r="X79" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -12569,17 +12959,17 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V80" t="n">
@@ -12591,6 +12981,11 @@
       <c r="X80" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -12684,7 +13079,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -12694,7 +13089,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V81" t="n">
@@ -12706,6 +13101,11 @@
       <c r="X81" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -12753,7 +13153,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12789,7 +13189,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -12799,7 +13199,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -12809,7 +13209,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V82" t="n">
@@ -12823,9 +13223,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC82" s="2" t="n">
@@ -12868,7 +13273,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12924,7 +13329,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V83" t="n">
@@ -12936,6 +13341,11 @@
       <c r="X83" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -12983,7 +13393,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -13051,6 +13461,11 @@
       <c r="X84" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -13098,7 +13513,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -13166,6 +13581,11 @@
       <c r="X85" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -13213,7 +13633,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -13269,7 +13689,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V86" t="n">
@@ -13281,6 +13701,11 @@
       <c r="X86" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -13364,7 +13789,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -13374,7 +13799,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -13384,23 +13809,28 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V87" t="n">
         <v>1</v>
       </c>
       <c r="W87" t="n">
-        <v>26.4</v>
+        <v>-88</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC87" s="2" t="n">
@@ -13479,7 +13909,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -13506,16 +13936,21 @@
         <v>1</v>
       </c>
       <c r="W88" t="n">
-        <v>-88</v>
+        <v>26.4</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC88" s="2" t="n">
@@ -13558,7 +13993,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -13604,7 +14039,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -13614,7 +14049,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V89" t="n">
@@ -13626,6 +14061,11 @@
       <c r="X89" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -13673,7 +14113,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -13729,7 +14169,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V90" t="n">
@@ -13741,6 +14181,11 @@
       <c r="X90" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -13788,7 +14233,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -13856,6 +14301,11 @@
       <c r="X91" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -13903,7 +14353,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -13971,6 +14421,11 @@
       <c r="X92" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -14018,7 +14473,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -14054,7 +14509,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -14064,7 +14519,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -14074,7 +14529,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V93" t="n">
@@ -14088,9 +14543,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC93" s="2" t="n">
@@ -14203,6 +14663,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB94" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -14318,6 +14783,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB95" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -14394,7 +14864,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -14404,33 +14874,38 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V96" t="n">
         <v>1</v>
       </c>
       <c r="W96" t="n">
-        <v>3.53</v>
+        <v>2.4</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC96" s="2" t="n">
@@ -14514,7 +14989,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -14524,18 +14999,23 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V97" t="n">
         <v>1</v>
       </c>
       <c r="W97" t="n">
-        <v>37.9</v>
+        <v>3.53</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
@@ -14624,28 +15104,33 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V98" t="n">
         <v>1</v>
       </c>
       <c r="W98" t="n">
-        <v>0.19</v>
+        <v>37.9</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
@@ -14734,7 +15219,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14744,18 +15229,23 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V99" t="n">
         <v>1</v>
       </c>
       <c r="W99" t="n">
-        <v>400.3</v>
+        <v>0.19</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
@@ -14798,7 +15288,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -14834,7 +15324,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -14844,7 +15334,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -14854,23 +15344,28 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V100" t="n">
         <v>1</v>
       </c>
       <c r="W100" t="n">
-        <v>8</v>
+        <v>400.3</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC100" s="2" t="n">
@@ -14908,7 +15403,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -14976,6 +15471,11 @@
       <c r="X101" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
@@ -15018,7 +15518,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -15081,11 +15581,16 @@
         <v>1</v>
       </c>
       <c r="W102" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X102" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
@@ -15128,7 +15633,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -15184,18 +15689,23 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="V103" t="n">
         <v>1</v>
       </c>
       <c r="W103" t="n">
-        <v>-88</v>
+        <v>6</v>
       </c>
       <c r="X103" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
@@ -15238,7 +15748,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -15294,7 +15804,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V104" t="n">
@@ -15306,6 +15816,11 @@
       <c r="X104" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
@@ -15384,7 +15899,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -15394,7 +15909,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -15404,23 +15919,28 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V105" t="n">
         <v>1</v>
       </c>
       <c r="W105" t="n">
-        <v>28.5</v>
+        <v>-88</v>
       </c>
       <c r="X105" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC105" s="2" t="n">
@@ -15494,7 +16014,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -15521,16 +16041,21 @@
         <v>1</v>
       </c>
       <c r="W106" t="n">
-        <v>20.9</v>
+        <v>28.5</v>
       </c>
       <c r="X106" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC106" s="2" t="n">
@@ -15568,7 +16093,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -15614,7 +16139,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -15624,18 +16149,23 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V107" t="n">
         <v>1</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02</v>
+        <v>20.9</v>
       </c>
       <c r="X107" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
@@ -15678,7 +16208,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -15741,11 +16271,16 @@
         <v>1</v>
       </c>
       <c r="W108" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="X108" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
@@ -15788,7 +16323,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -15856,6 +16391,11 @@
       <c r="X109" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
@@ -15898,7 +16438,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Midchannel3</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -15954,18 +16494,23 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="V110" t="n">
         <v>1</v>
       </c>
       <c r="W110" t="n">
-        <v>-88</v>
+        <v>0.03</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
@@ -16008,7 +16553,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Midchannel3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -16044,7 +16589,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -16054,7 +16599,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -16064,23 +16609,28 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V111" t="n">
         <v>1</v>
       </c>
       <c r="W111" t="n">
-        <v>2.4</v>
+        <v>-88</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC111" s="2" t="n">
@@ -16188,6 +16738,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB112" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -16298,6 +16853,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB113" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -16379,7 +16939,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -16389,17 +16949,17 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V114" t="n">
@@ -16413,9 +16973,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC114" s="2" t="n">
@@ -16504,7 +17069,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -16514,7 +17079,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V115" t="n">
@@ -16526,6 +17091,11 @@
       <c r="X115" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
@@ -16619,17 +17189,17 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V116" t="n">
@@ -16641,6 +17211,11 @@
       <c r="X116" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
@@ -16734,7 +17309,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -16744,7 +17319,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V117" t="n">
@@ -16756,6 +17331,11 @@
       <c r="X117" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
@@ -16803,7 +17383,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -16839,7 +17419,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -16849,7 +17429,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -16859,7 +17439,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>uS/cm</t>
         </is>
       </c>
       <c r="V118" t="n">
@@ -16873,9 +17453,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC118" s="2" t="n">
@@ -16918,7 +17503,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -16974,7 +17559,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V119" t="n">
@@ -16986,6 +17571,11 @@
       <c r="X119" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
@@ -17033,7 +17623,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -17101,6 +17691,11 @@
       <c r="X120" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
@@ -17148,7 +17743,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -17216,6 +17811,11 @@
       <c r="X121" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
@@ -17263,7 +17863,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -17319,7 +17919,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V122" t="n">
@@ -17331,6 +17931,11 @@
       <c r="X122" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr">
@@ -17414,7 +18019,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -17424,7 +18029,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -17434,23 +18039,28 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V123" t="n">
         <v>1</v>
       </c>
       <c r="W123" t="n">
-        <v>23</v>
+        <v>-88</v>
       </c>
       <c r="X123" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC123" s="2" t="n">
@@ -17529,7 +18139,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -17556,16 +18166,21 @@
         <v>1</v>
       </c>
       <c r="W124" t="n">
-        <v>-88</v>
+        <v>23</v>
       </c>
       <c r="X124" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC124" s="2" t="n">
@@ -17608,7 +18223,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -17654,7 +18269,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -17664,7 +18279,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>deg C</t>
         </is>
       </c>
       <c r="V125" t="n">
@@ -17676,6 +18291,11 @@
       <c r="X125" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
@@ -17723,7 +18343,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -17779,7 +18399,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V126" t="n">
@@ -17791,6 +18411,11 @@
       <c r="X126" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
@@ -17838,7 +18463,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Midchannel2</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -17906,6 +18531,11 @@
       <c r="X127" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr">
@@ -17953,7 +18583,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel2</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -18021,6 +18651,11 @@
       <c r="X128" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
@@ -18068,7 +18703,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -18104,7 +18739,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -18114,7 +18749,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -18124,7 +18759,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V129" t="n">
@@ -18138,9 +18773,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC129" s="2" t="n">
@@ -18253,6 +18893,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB130" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -18368,6 +19013,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB131" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -18449,7 +19099,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -18459,33 +19109,38 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>Oxygen, Dissolved</t>
+          <t>Bankfull Width</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V132" t="n">
         <v>1</v>
       </c>
       <c r="W132" t="n">
-        <v>8.199999999999999</v>
+        <v>-88</v>
       </c>
       <c r="X132" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC132" s="2" t="n">
@@ -18574,7 +19229,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>Oxygen, Saturation</t>
+          <t>Oxygen, Dissolved</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -18584,18 +19239,23 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="V133" t="n">
         <v>1</v>
       </c>
       <c r="W133" t="n">
-        <v>84.90000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X133" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
@@ -18689,28 +19349,33 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Oxygen, Saturation</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>ppt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="V134" t="n">
         <v>1</v>
       </c>
       <c r="W134" t="n">
-        <v>0.62</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="X134" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
@@ -18804,7 +19469,7 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>SpecificConductivity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
@@ -18814,18 +19479,23 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>uS/cm</t>
+          <t>ppt</t>
         </is>
       </c>
       <c r="V135" t="n">
         <v>1</v>
       </c>
       <c r="W135" t="n">
-        <v>1234</v>
+        <v>0.62</v>
       </c>
       <c r="X135" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
@@ -18868,7 +19538,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Bank</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -18909,7 +19579,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -18919,7 +19589,7 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>StationWaterDepth</t>
+          <t>SpecificConductivity</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -18929,23 +19599,28 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
+          <t>uS/cm</t>
+        </is>
+      </c>
+      <c r="V136" t="n">
+        <v>1</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1234</v>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
           <t>NR</t>
         </is>
       </c>
-      <c r="V136" t="n">
-        <v>1</v>
-      </c>
-      <c r="W136" t="n">
-        <v>-88</v>
-      </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC136" s="2" t="n">
@@ -18983,7 +19658,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -19044,7 +19719,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V137" t="n">
@@ -19056,6 +19731,11 @@
       <c r="X137" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
@@ -19098,7 +19778,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -19171,6 +19851,11 @@
       <c r="X138" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
@@ -19288,6 +19973,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB139" t="inlineStr">
         <is>
           <t>Wading Rod</t>
@@ -19328,7 +20018,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Bank</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -19389,7 +20079,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V140" t="n">
@@ -19401,6 +20091,11 @@
       <c r="X140" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr">
@@ -19484,7 +20179,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -19494,7 +20189,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>StationWaterDepth</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -19504,23 +20199,28 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>deg C</t>
+          <t>m</t>
         </is>
       </c>
       <c r="V141" t="n">
         <v>1</v>
       </c>
       <c r="W141" t="n">
-        <v>21.5</v>
+        <v>-88</v>
       </c>
       <c r="X141" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>HandheldAnemometer</t>
+          <t>Wading Rod</t>
         </is>
       </c>
       <c r="AC141" s="2" t="n">
@@ -19599,7 +20299,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>samplewater</t>
+          <t>air</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -19626,16 +20326,21 @@
         <v>1</v>
       </c>
       <c r="W142" t="n">
-        <v>16.6</v>
+        <v>21.5</v>
       </c>
       <c r="X142" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>YSI Pro1020</t>
+          <t>HandheldAnemometer</t>
         </is>
       </c>
       <c r="AC142" s="2" t="n">
@@ -19673,7 +20378,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Bank, Left</t>
+          <t>Bank</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -19724,7 +20429,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -19734,18 +20439,23 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
+          <t>deg C</t>
+        </is>
+      </c>
+      <c r="V143" t="n">
+        <v>1</v>
+      </c>
+      <c r="W143" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
           <t>NR</t>
-        </is>
-      </c>
-      <c r="V143" t="n">
-        <v>1</v>
-      </c>
-      <c r="W143" t="n">
-        <v>-88</v>
-      </c>
-      <c r="X143" t="inlineStr">
-        <is>
-          <t>=</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
@@ -19788,7 +20498,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Midchannel</t>
+          <t>Bank, Left</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -19849,7 +20559,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -19861,6 +20571,11 @@
       <c r="X144" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr">
@@ -19903,7 +20618,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Bank, Right</t>
+          <t>Midchannel</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -19976,6 +20691,11 @@
       <c r="X145" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr">
@@ -20093,6 +20813,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB146" t="inlineStr">
         <is>
           <t>YSI Pro1020</t>
@@ -20133,7 +20858,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Bank</t>
+          <t>Bank, Right</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -20174,7 +20899,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplewater</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -20184,7 +20909,7 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>WettedWidth</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
@@ -20194,7 +20919,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V147" t="n">
@@ -20208,9 +20933,14 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>Wading Rod</t>
+          <t>YSI Pro1020</t>
         </is>
       </c>
       <c r="AC147" s="2" t="n">
@@ -20323,6 +21053,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="AB148" t="inlineStr">
         <is>
           <t>HandheldAnemometer</t>
@@ -20436,6 +21171,11 @@
       <c r="X149" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
@@ -20481,7 +21221,7 @@
     <col width="37" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="24" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="24" customWidth="1" min="19" max="19"/>
@@ -20721,6 +21461,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -20822,6 +21567,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -20923,6 +21673,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21024,6 +21779,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21125,6 +21885,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21226,6 +21991,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21327,6 +22097,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21402,7 +22177,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -21426,6 +22201,11 @@
       <c r="U9" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -21529,6 +22309,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21630,6 +22415,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21731,6 +22521,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21832,6 +22627,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -21933,6 +22733,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22034,6 +22839,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22135,6 +22945,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22236,6 +23051,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22337,6 +23157,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22438,6 +23263,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22539,6 +23369,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22640,6 +23475,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22715,7 +23555,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -22739,6 +23579,11 @@
       <c r="U22" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -22842,6 +23687,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -22943,6 +23793,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23044,6 +23899,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23145,6 +24005,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23246,6 +24111,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23342,6 +24212,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23438,6 +24313,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23534,6 +24414,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23630,6 +24515,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23726,6 +24616,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23822,6 +24717,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23918,6 +24818,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -23988,7 +24893,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -24012,6 +24917,11 @@
       <c r="U35" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -24110,6 +25020,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24206,6 +25121,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24302,6 +25222,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24398,6 +25323,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24494,6 +25424,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24595,6 +25530,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24696,6 +25636,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24797,6 +25742,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y43" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24898,6 +25848,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -24999,6 +25954,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25100,6 +26060,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25201,6 +26166,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25276,7 +26246,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -25300,6 +26270,11 @@
       <c r="U48" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -25403,6 +26378,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y49" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25504,6 +26484,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25605,6 +26590,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25706,6 +26696,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25807,6 +26802,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -25908,6 +26908,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26009,6 +27014,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26110,6 +27120,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26211,6 +27226,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26312,6 +27332,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26413,6 +27438,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26514,6 +27544,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26589,7 +27624,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -26613,6 +27648,11 @@
       <c r="U61" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -26716,6 +27756,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26817,6 +27862,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -26918,6 +27968,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27019,6 +28074,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27120,6 +28180,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27216,6 +28281,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27312,6 +28382,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27408,6 +28483,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27504,6 +28584,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27600,6 +28685,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27696,6 +28786,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27792,6 +28887,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -27862,7 +28962,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -27886,6 +28986,11 @@
       <c r="U74" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -27984,6 +29089,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28080,6 +29190,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y76" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28176,6 +29291,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28272,6 +29392,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28368,6 +29493,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28469,6 +29599,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28570,6 +29705,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28671,6 +29811,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28772,6 +29917,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28873,6 +30023,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -28974,6 +30129,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29075,6 +30235,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29150,7 +30315,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -29174,6 +30339,11 @@
       <c r="U87" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -29277,6 +30447,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29378,6 +30553,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29479,6 +30659,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29580,6 +30765,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29681,6 +30871,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29782,6 +30977,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29883,6 +31083,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -29984,6 +31189,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y95" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30085,6 +31295,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30186,6 +31401,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y97" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30287,6 +31507,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30388,6 +31613,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30463,7 +31693,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>OverlandRunoff</t>
+          <t>OverlandRunoffLast24hrs</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -30487,6 +31717,11 @@
       <c r="U100" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -30590,6 +31825,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30691,6 +31931,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30792,6 +32037,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30893,6 +32143,11 @@
           <t>=</t>
         </is>
       </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
       <c r="Y104" t="inlineStr">
         <is>
           <t>Not Recorded</t>
@@ -30992,6 +32247,11 @@
       <c r="U105" t="inlineStr">
         <is>
           <t>=</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
